--- a/01_设计书/01_画面设计书/02_画面mock/画面机能说明.xlsx
+++ b/01_设计书/01_画面设计书/02_画面mock/画面机能说明.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25726"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkSpace\SpringBoot学习\skillup\01_设计书\01_画面设计书\02_画面mock\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2154B3E5-AD46-4347-B229-C87866E2BA9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="功能" sheetId="1" r:id="rId1"/>
@@ -134,7 +140,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -144,7 +150,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>※※</t>
     </r>
@@ -244,29 +250,191 @@
     <t>加班时间集计</t>
   </si>
   <si>
-    <t xml:space="preserve">・集计对象（单选）：人别，项目别，部门别
-・集计期间（单选）：月，年，手入力期间
-・集计按钮
-・集计结果一览表（DataTable插件）
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">集计对象（单选）：人别，项目别，部门别
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">集计期间（单选）：月，年，手入力期间
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">集计按钮
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">集计结果一览表（DataTable插件）
   表头有全选Checkbox，每行有CheckBox
-・集计结果检索条件（单选）：加班时间超过50，周末加班时间多余平时 等
-・检索按钮
-・Excel出力按钮：把检索结果出力到Excel
-・mail通知按钮：把Checkbox选中的情报发送到指定邮件地址（情报以PDF文件附件形式）
 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">集计结果检索条件（单选）：加班时间超过50，周末加班时间多余平时 等
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">检索按钮
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Excel出力按钮：把检索结果出力到Excel
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">mail通知按钮：把Checkbox选中的情报发送到指定邮件地址（情报以PDF文件附件形式）
+</t>
+    </r>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-  </numFmts>
-  <fonts count="33">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -294,7 +462,7 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -323,150 +491,6 @@
       <color rgb="FF1F497D"/>
       <name val="SimSun"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -500,17 +524,47 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <strike/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -525,198 +579,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -819,255 +687,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1080,138 +706,91 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
@@ -1225,9 +804,15 @@
       <xdr:row>8</xdr:row>
       <xdr:rowOff>2003425</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="矩形 1"/>
+        <xdr:cNvPr id="2" name="矩形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1257,6 +842,7 @@
       </xdr:style>
       <xdr:txBody>
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
@@ -1267,7 +853,6 @@
             <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="1"/>
             <a:t>数据批量导入数据库的实现：</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" b="1"/>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
@@ -1303,7 +888,6 @@
             <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="1"/>
             <a:t>不要循环差数据）</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" b="1"/>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
@@ -1323,7 +907,6 @@
             <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="1"/>
             <a:t>自带的批处理方法</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" b="1"/>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
@@ -1347,7 +930,6 @@
             <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="1"/>
             <a:t>包（因为格式比较规整）</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" b="1"/>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
@@ -1363,7 +945,6 @@
             <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="1"/>
             <a:t>集计这块的处理，</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" b="1"/>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
@@ -1383,7 +964,6 @@
             <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="1"/>
             <a:t>画面实时处理。</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" b="1"/>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
@@ -1411,7 +991,6 @@
             <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="1"/>
             <a:t>获取集计情报。</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" b="1"/>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
@@ -1423,7 +1002,6 @@
             <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="1"/>
             <a:t>集计结果保存在一个对象，针对集计结果的检索过滤就对这个对象进行过滤</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" b="1"/>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
@@ -1777,347 +1355,323 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:K42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="2" width="3.87962962962963" customWidth="1"/>
+    <col min="1" max="2" width="3.88671875" customWidth="1"/>
     <col min="4" max="4" width="45" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" ht="17.4" spans="3:3">
-      <c r="C2" s="7" t="s">
+    <row r="2" spans="2:11" ht="17.399999999999999">
+      <c r="C2" s="6" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" ht="15.6" spans="3:3">
-      <c r="C3" s="8"/>
-    </row>
-    <row r="4" ht="15" spans="2:11">
+    <row r="3" spans="2:11" ht="15.6">
+      <c r="C3" s="7"/>
+    </row>
+    <row r="4" spans="2:11" ht="15">
       <c r="B4" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="22"/>
-      <c r="K4" s="23"/>
-    </row>
-    <row r="5" ht="15" spans="3:11">
-      <c r="C5" s="12"/>
-      <c r="D5" s="13"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="24"/>
-      <c r="K5" s="23"/>
-    </row>
-    <row r="6" spans="3:11">
-      <c r="C6" s="15"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="24"/>
-      <c r="K6" s="23"/>
-    </row>
-    <row r="7" spans="3:11">
-      <c r="C7" s="12"/>
-      <c r="D7" s="16" t="s">
+      <c r="C4" s="8"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="20"/>
+      <c r="K4" s="21"/>
+    </row>
+    <row r="5" spans="2:11" ht="15">
+      <c r="C5" s="11"/>
+      <c r="D5" s="12"/>
+      <c r="I5" s="22"/>
+      <c r="K5" s="21"/>
+    </row>
+    <row r="6" spans="2:11">
+      <c r="C6" s="13"/>
+      <c r="I6" s="22"/>
+      <c r="K6" s="21"/>
+    </row>
+    <row r="7" spans="2:11">
+      <c r="C7" s="11"/>
+      <c r="D7" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="H7" s="14"/>
-      <c r="I7" s="24"/>
-      <c r="K7" s="25"/>
-    </row>
-    <row r="8" spans="3:11">
-      <c r="C8" s="12"/>
-      <c r="D8" s="16" t="s">
+      <c r="I7" s="22"/>
+      <c r="K7" s="23"/>
+    </row>
+    <row r="8" spans="2:11">
+      <c r="C8" s="11"/>
+      <c r="D8" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="H8" s="14"/>
-      <c r="I8" s="24"/>
-      <c r="K8" s="25"/>
-    </row>
-    <row r="9" spans="3:11">
-      <c r="C9" s="12"/>
-      <c r="D9" s="16" t="s">
+      <c r="I8" s="22"/>
+      <c r="K8" s="23"/>
+    </row>
+    <row r="9" spans="2:11">
+      <c r="C9" s="11"/>
+      <c r="D9" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="H9" s="14"/>
-      <c r="I9" s="24"/>
-      <c r="K9" s="25"/>
-    </row>
-    <row r="10" spans="3:11">
-      <c r="C10" s="12"/>
-      <c r="D10" s="16" t="s">
+      <c r="I9" s="22"/>
+      <c r="K9" s="23"/>
+    </row>
+    <row r="10" spans="2:11">
+      <c r="C10" s="11"/>
+      <c r="D10" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="H10" s="14"/>
-      <c r="I10" s="24"/>
-      <c r="K10" s="25"/>
-    </row>
-    <row r="11" spans="3:11">
-      <c r="C11" s="12"/>
-      <c r="D11" s="16" t="s">
+      <c r="I10" s="22"/>
+      <c r="K10" s="23"/>
+    </row>
+    <row r="11" spans="2:11">
+      <c r="C11" s="11"/>
+      <c r="D11" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="H11" s="14"/>
-      <c r="I11" s="24"/>
-      <c r="K11" s="25"/>
-    </row>
-    <row r="12" spans="3:11">
-      <c r="C12" s="12"/>
-      <c r="D12" s="16" t="s">
+      <c r="I11" s="22"/>
+      <c r="K11" s="23"/>
+    </row>
+    <row r="12" spans="2:11">
+      <c r="C12" s="11"/>
+      <c r="D12" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="H12" s="14"/>
-      <c r="I12" s="24"/>
-      <c r="K12" s="25"/>
-    </row>
-    <row r="13" spans="3:11">
-      <c r="C13" s="12"/>
-      <c r="D13" s="16" t="s">
+      <c r="I12" s="22"/>
+      <c r="K12" s="23"/>
+    </row>
+    <row r="13" spans="2:11">
+      <c r="C13" s="11"/>
+      <c r="D13" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="H13" s="14"/>
-      <c r="I13" s="24"/>
-      <c r="K13" s="25"/>
-    </row>
-    <row r="14" spans="3:11">
-      <c r="C14" s="12"/>
-      <c r="D14" s="16" t="s">
+      <c r="I13" s="22"/>
+      <c r="K13" s="23"/>
+    </row>
+    <row r="14" spans="2:11">
+      <c r="C14" s="11"/>
+      <c r="D14" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="H14" s="14"/>
-      <c r="I14" s="24"/>
-      <c r="K14" s="25"/>
-    </row>
-    <row r="15" spans="3:11">
-      <c r="C15" s="12"/>
-      <c r="D15" s="16" t="s">
+      <c r="I14" s="22"/>
+      <c r="K14" s="23"/>
+    </row>
+    <row r="15" spans="2:11">
+      <c r="C15" s="11"/>
+      <c r="D15" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="H15" s="14"/>
-      <c r="I15" s="24"/>
-      <c r="K15" s="25"/>
-    </row>
-    <row r="16" spans="3:11">
-      <c r="C16" s="12"/>
-      <c r="D16" s="16" t="s">
+      <c r="I15" s="22"/>
+      <c r="K15" s="23"/>
+    </row>
+    <row r="16" spans="2:11">
+      <c r="C16" s="11"/>
+      <c r="D16" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="H16" s="14"/>
-      <c r="I16" s="24"/>
-      <c r="K16" s="25"/>
-    </row>
-    <row r="17" spans="3:11">
-      <c r="C17" s="12"/>
-      <c r="D17" s="16" t="s">
+      <c r="I16" s="22"/>
+      <c r="K16" s="23"/>
+    </row>
+    <row r="17" spans="2:11">
+      <c r="C17" s="11"/>
+      <c r="D17" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="H17" s="14"/>
-      <c r="I17" s="24"/>
-      <c r="K17" s="25"/>
-    </row>
-    <row r="18" spans="3:11">
-      <c r="C18" s="12"/>
-      <c r="D18" s="16" t="s">
+      <c r="I17" s="22"/>
+      <c r="K17" s="23"/>
+    </row>
+    <row r="18" spans="2:11">
+      <c r="C18" s="11"/>
+      <c r="D18" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="H18" s="14"/>
-      <c r="I18" s="24"/>
-      <c r="K18" s="25"/>
-    </row>
-    <row r="19" spans="3:11">
-      <c r="C19" s="12"/>
-      <c r="D19" s="16" t="s">
+      <c r="I18" s="22"/>
+      <c r="K18" s="23"/>
+    </row>
+    <row r="19" spans="2:11">
+      <c r="C19" s="11"/>
+      <c r="D19" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="H19" s="14"/>
-      <c r="I19" s="24"/>
-      <c r="K19" s="25"/>
-    </row>
-    <row r="20" spans="3:11">
-      <c r="C20" s="12"/>
-      <c r="D20" s="16" t="s">
+      <c r="I19" s="22"/>
+      <c r="K19" s="23"/>
+    </row>
+    <row r="20" spans="2:11">
+      <c r="C20" s="11"/>
+      <c r="D20" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="H20" s="14"/>
-      <c r="I20" s="24"/>
-      <c r="K20" s="25"/>
-    </row>
-    <row r="21" spans="3:11">
-      <c r="C21" s="12"/>
-      <c r="D21" s="16" t="s">
+      <c r="I20" s="22"/>
+      <c r="K20" s="23"/>
+    </row>
+    <row r="21" spans="2:11">
+      <c r="C21" s="11"/>
+      <c r="D21" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="H21" s="14"/>
-      <c r="I21" s="24"/>
-      <c r="K21" s="25"/>
-    </row>
-    <row r="22" spans="3:11">
-      <c r="C22" s="12"/>
-      <c r="H22" s="14"/>
-      <c r="I22" s="24"/>
-      <c r="K22" s="25"/>
-    </row>
-    <row r="23" spans="3:11">
-      <c r="C23" s="12"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="14"/>
-      <c r="I23" s="26"/>
-      <c r="K23" s="25"/>
+      <c r="I21" s="22"/>
+      <c r="K21" s="23"/>
+    </row>
+    <row r="22" spans="2:11">
+      <c r="C22" s="11"/>
+      <c r="I22" s="22"/>
+      <c r="K22" s="23"/>
+    </row>
+    <row r="23" spans="2:11">
+      <c r="C23" s="11"/>
+      <c r="I23" s="24"/>
+      <c r="K23" s="23"/>
     </row>
     <row r="24" spans="2:11">
-      <c r="B24" s="17" t="s">
+      <c r="B24" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C24" s="18"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="22"/>
-      <c r="K24" s="23"/>
-    </row>
-    <row r="25" spans="3:11">
-      <c r="C25" s="12"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="20"/>
+      <c r="K24" s="21"/>
+    </row>
+    <row r="25" spans="2:11">
+      <c r="C25" s="11"/>
       <c r="D25" t="s">
         <v>18</v>
       </c>
-      <c r="I25" s="24"/>
-      <c r="K25" s="25"/>
-    </row>
-    <row r="26" spans="3:11">
-      <c r="C26" s="12"/>
-      <c r="I26" s="24"/>
-      <c r="K26" s="25"/>
-    </row>
-    <row r="27" spans="3:11">
-      <c r="C27" s="12"/>
-      <c r="I27" s="24"/>
-      <c r="K27" s="25"/>
-    </row>
-    <row r="28" spans="3:11">
-      <c r="C28" s="12"/>
+      <c r="I25" s="22"/>
+      <c r="K25" s="23"/>
+    </row>
+    <row r="26" spans="2:11">
+      <c r="C26" s="11"/>
+      <c r="I26" s="22"/>
+      <c r="K26" s="23"/>
+    </row>
+    <row r="27" spans="2:11">
+      <c r="C27" s="11"/>
+      <c r="I27" s="22"/>
+      <c r="K27" s="23"/>
+    </row>
+    <row r="28" spans="2:11">
+      <c r="C28" s="11"/>
       <c r="D28" t="s">
         <v>19</v>
       </c>
-      <c r="I28" s="24"/>
-      <c r="K28" s="25"/>
-    </row>
-    <row r="29" ht="15.6" spans="3:9">
-      <c r="C29" s="12"/>
+      <c r="I28" s="22"/>
+      <c r="K28" s="23"/>
+    </row>
+    <row r="29" spans="2:11" ht="15.6">
+      <c r="C29" s="11"/>
       <c r="D29" t="s">
         <v>20</v>
       </c>
-      <c r="I29" s="24"/>
-    </row>
-    <row r="30" spans="3:9">
-      <c r="C30" s="12"/>
+      <c r="I29" s="22"/>
+    </row>
+    <row r="30" spans="2:11">
+      <c r="C30" s="11"/>
       <c r="D30" t="s">
         <v>21</v>
       </c>
-      <c r="I30" s="24"/>
-    </row>
-    <row r="31" spans="3:9">
-      <c r="C31" s="12"/>
+      <c r="I30" s="22"/>
+    </row>
+    <row r="31" spans="2:11">
+      <c r="C31" s="11"/>
       <c r="D31" t="s">
         <v>22</v>
       </c>
-      <c r="I31" s="24"/>
-    </row>
-    <row r="32" spans="3:9">
-      <c r="C32" s="12"/>
-      <c r="I32" s="24"/>
+      <c r="I31" s="22"/>
+    </row>
+    <row r="32" spans="2:11">
+      <c r="C32" s="11"/>
+      <c r="I32" s="22"/>
     </row>
     <row r="33" spans="3:9">
-      <c r="C33" s="12"/>
-      <c r="I33" s="24"/>
-    </row>
-    <row r="34" ht="15.6" spans="3:9">
-      <c r="C34" s="12"/>
-      <c r="D34" s="19" t="s">
+      <c r="C33" s="11"/>
+      <c r="I33" s="22"/>
+    </row>
+    <row r="34" spans="3:9" ht="15.6">
+      <c r="C34" s="11"/>
+      <c r="D34" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="I34" s="24"/>
+      <c r="I34" s="22"/>
     </row>
     <row r="35" spans="3:9">
-      <c r="C35" s="12"/>
-      <c r="I35" s="24"/>
+      <c r="C35" s="11"/>
+      <c r="I35" s="22"/>
     </row>
     <row r="36" spans="3:9">
-      <c r="C36" s="12"/>
-      <c r="I36" s="24"/>
+      <c r="C36" s="11"/>
+      <c r="I36" s="22"/>
     </row>
     <row r="37" spans="3:9">
-      <c r="C37" s="12"/>
-      <c r="I37" s="24"/>
+      <c r="C37" s="11"/>
+      <c r="I37" s="22"/>
     </row>
     <row r="38" spans="3:9">
-      <c r="C38" s="12"/>
-      <c r="I38" s="24"/>
+      <c r="C38" s="11"/>
+      <c r="I38" s="22"/>
     </row>
     <row r="39" spans="3:9">
-      <c r="C39" s="12"/>
-      <c r="I39" s="24"/>
+      <c r="C39" s="11"/>
+      <c r="I39" s="22"/>
     </row>
     <row r="40" spans="3:9">
-      <c r="C40" s="12"/>
-      <c r="I40" s="24"/>
+      <c r="C40" s="11"/>
+      <c r="I40" s="22"/>
     </row>
     <row r="41" spans="3:9">
-      <c r="C41" s="12"/>
-      <c r="I41" s="24"/>
+      <c r="C41" s="11"/>
+      <c r="I41" s="22"/>
     </row>
     <row r="42" spans="3:9">
-      <c r="C42" s="20"/>
-      <c r="D42" s="21"/>
-      <c r="E42" s="21"/>
-      <c r="F42" s="21"/>
-      <c r="G42" s="21"/>
-      <c r="H42" s="21"/>
-      <c r="I42" s="26"/>
+      <c r="C42" s="18"/>
+      <c r="D42" s="19"/>
+      <c r="E42" s="19"/>
+      <c r="F42" s="19"/>
+      <c r="G42" s="19"/>
+      <c r="H42" s="19"/>
+      <c r="I42" s="24"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B3:D9"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="3.37962962962963" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17.1296296296296" style="1" customWidth="1"/>
-    <col min="4" max="4" width="100.37962962963" style="1" customWidth="1"/>
+    <col min="2" max="2" width="3.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="100.33203125" style="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" ht="17.4" spans="2:4">
+    <row r="3" spans="2:4" ht="17.399999999999999">
       <c r="B3" s="2" t="s">
         <v>24</v>
       </c>
@@ -2137,7 +1691,7 @@
       </c>
       <c r="D4" s="3"/>
     </row>
-    <row r="5" ht="83" customHeight="1" spans="2:4">
+    <row r="5" spans="2:4" ht="82.95" customHeight="1">
       <c r="B5" s="3">
         <v>2</v>
       </c>
@@ -2148,7 +1702,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" ht="43" customHeight="1" spans="2:4">
+    <row r="6" spans="2:4" ht="43.05" customHeight="1">
       <c r="B6" s="3">
         <v>3</v>
       </c>
@@ -2159,7 +1713,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" ht="97" customHeight="1" spans="2:4">
+    <row r="7" spans="2:4" ht="97.05" customHeight="1">
       <c r="B7" s="3">
         <v>4</v>
       </c>
@@ -2170,31 +1724,31 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" ht="75" customHeight="1" spans="2:4">
+    <row r="8" spans="2:4" ht="75" customHeight="1">
       <c r="B8" s="3">
         <v>5</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="5" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="9" ht="184" customHeight="1" spans="2:4">
+    <row r="9" spans="2:4" ht="184.05" customHeight="1">
       <c r="B9" s="3">
         <v>6</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="25" t="s">
         <v>37</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>